--- a/data/Experiment/TheWorks_08132025.xlsx
+++ b/data/Experiment/TheWorks_08132025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernbromley/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1397A2-7C50-2D45-BFB6-475B630A0E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6410C04-B7D7-4A4B-A251-8B997FC5BACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12680" yWindow="760" windowWidth="16720" windowHeight="17120" xr2:uid="{CA551DF1-0ED1-674A-8F89-05216640288A}"/>
   </bookViews>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F958DE17-0E59-E849-A835-10176DABDFD5}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="208" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="208" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,320 +1119,560 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>355.2</v>
+      </c>
       <c r="C22" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>5.6040000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>357.8</v>
+      </c>
       <c r="C23" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>4.6239999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>329.1</v>
+      </c>
       <c r="C24" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D24">
+        <v>4.8109999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>377.7</v>
+      </c>
       <c r="C25" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
+      </c>
+      <c r="D25">
+        <v>4.7640000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>314</v>
+      </c>
       <c r="C26" s="4">
-        <v>0.1</v>
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <v>4.3029999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>302.39999999999998</v>
+      </c>
       <c r="C27" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D27">
+        <v>5.0410000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>274.8</v>
+      </c>
       <c r="C28" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>6.2709999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>249</v>
+      </c>
       <c r="C29" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>5.7389999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>284.5</v>
+      </c>
       <c r="C30" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D30">
+        <v>6.42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>360.1</v>
+      </c>
       <c r="C31" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D31">
+        <v>5.0330000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B32">
+        <v>463.8</v>
+      </c>
       <c r="C32" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>4.883</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B33">
+        <v>286.39999999999998</v>
+      </c>
       <c r="C33" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>5.0940000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B34">
+        <v>262.7</v>
+      </c>
       <c r="C34" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>5.0049999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B35">
+        <v>261.7</v>
+      </c>
       <c r="C35" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="D35">
+        <v>4.7850000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="B36">
+        <v>477.2</v>
+      </c>
       <c r="C36" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>4.3410000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="B37">
+        <v>311.5</v>
+      </c>
       <c r="C37" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>5.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B38">
+        <v>316.10000000000002</v>
+      </c>
       <c r="C38" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="B39">
+        <v>313.89999999999998</v>
+      </c>
       <c r="C39" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>4.7930000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="B40">
+        <v>336</v>
+      </c>
       <c r="C40" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>4.1319999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B41">
+        <v>371.5</v>
+      </c>
       <c r="C41" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>5.0910000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="B42">
+        <v>286.8</v>
+      </c>
       <c r="C42" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="B43">
+        <v>319.39999999999998</v>
+      </c>
       <c r="C43" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>5.6150000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B44">
+        <v>267</v>
+      </c>
       <c r="C44" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>5.0519999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="B45">
+        <v>268.5</v>
+      </c>
       <c r="C45" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>4.9290000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="B46">
+        <v>292.8</v>
+      </c>
       <c r="C46" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>5.0259999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B47">
+        <v>282.5</v>
+      </c>
       <c r="C47" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="D47">
+        <v>5.181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B48">
+        <v>330.2</v>
+      </c>
       <c r="C48" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B49">
+        <v>359.6</v>
+      </c>
       <c r="C49" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>4.9909999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B50">
+        <v>291</v>
+      </c>
       <c r="C50" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>5.1580000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="B51">
+        <v>256.89999999999998</v>
+      </c>
       <c r="C51" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>5.6459999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="B52">
+        <v>397.5</v>
+      </c>
       <c r="C52" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>5.8659999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B53">
+        <v>327</v>
+      </c>
       <c r="C53" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="D53">
+        <v>5.2229999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B54">
+        <v>394.1</v>
+      </c>
       <c r="C54" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.25</v>
+      </c>
+      <c r="D54">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="B55">
+        <v>276.3</v>
+      </c>
       <c r="C55" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>4.9429999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B56">
+        <v>254.7</v>
+      </c>
       <c r="C56" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>6.7069999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B57">
+        <v>464.5</v>
+      </c>
       <c r="C57" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>4.6219999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="B58">
+        <v>279.3</v>
+      </c>
       <c r="C58" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>6.2439999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B59">
+        <v>282.39999999999998</v>
+      </c>
       <c r="C59" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>5.4370000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="B60">
+        <v>357.3</v>
+      </c>
       <c r="C60" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>5.4059999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="B61">
+        <v>302.2</v>
+      </c>
       <c r="C61" s="4">
         <v>0.1</v>
+      </c>
+      <c r="D61">
+        <v>5.6879999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1450,8 +1690,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E06963-B773-F348-8854-A3523910E721}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="174" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1478,305 +1719,845 @@
       <c r="A2" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="B2">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>3.3660000000000001</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="B3">
+        <v>349.6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>3.7010000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="B4">
+        <v>509.3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>4.016</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="B5">
+        <v>336.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>4.0890000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="B6">
+        <v>409.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>2.6779999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B7">
+        <v>380</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>3.0609999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="B8">
+        <v>299.7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>4.6580000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B9">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>4.4770000000000003</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="B10">
+        <v>323.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>4.0819999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="B11">
+        <v>251.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>4.0759999999999996</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="B12">
+        <v>288.39999999999998</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>3.7989999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="B13">
+        <v>485.8</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>3.99</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="B14">
+        <v>401.3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D14">
+        <v>3.2509999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="B15">
+        <v>359.3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D15">
+        <v>3.7610000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>267.10000000000002</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D16">
+        <v>4.3760000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>319.7</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <v>4.1429999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>460.2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D18">
+        <v>4.1420000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>390.7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <v>2.9140000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>369.6</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>295.8</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <v>4.3620000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>296.8</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>4.1120000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>539.29999999999995</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D23">
+        <v>3.3439999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>361.5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D24">
+        <v>3.7250000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>377.4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>3.8109999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>315.3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D26">
+        <v>3.2869999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>247.6</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D27">
+        <v>4.601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>515.5</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D28">
+        <v>5.0289999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D29">
+        <v>4.2969999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>340.2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D30">
+        <v>3.504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>279.5</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D31">
+        <v>3.6349999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>345.7</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D32">
+        <v>4.9420000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>314</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D33">
+        <v>4.4390000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>334.1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D34">
+        <v>3.5840000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>359.7</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D35">
+        <v>3.3610000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>316.60000000000002</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D36">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>282.8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D37">
+        <v>4.1829999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>402</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D38">
+        <v>4.8310000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D39">
+        <v>4.468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>283.8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D40">
+        <v>4.3609999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>254.3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D41">
+        <v>4.8490000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>255.1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D42">
+        <v>4.5970000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>281.5</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D43">
+        <v>4.6150000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>266.60000000000002</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D44">
+        <v>6.2359999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>248.8</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D45">
+        <v>4.7220000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>422</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D46">
+        <v>3.919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>334.3</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D47">
+        <v>3.698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>236.2</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D48">
+        <v>4.9939999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>421.6</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D49">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>270.89999999999998</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D50">
+        <v>4.3129999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>244</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D51">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D52">
+        <v>3.891</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>349.9</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>304.8</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D54">
+        <v>3.8479999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>255.7</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D55">
+        <v>4.4930000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>250.3</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D56">
+        <v>4.9660000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>269.8</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D57">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>354.5</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D58">
+        <v>4.2460000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>278.39999999999998</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D59">
+        <v>4.5839999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>259.8</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D60">
+        <v>6.2830000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="B61">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D61">
+        <v>4.383</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{F9207FD4-6F5D-C448-AAE3-8111CD40AC19}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C61" xr:uid="{F9207FD4-6F5D-C448-AAE3-8111CD40AC19}">
       <formula1>"10%, 25%, 50%, 75%, 90%"</formula1>
     </dataValidation>
   </dataValidations>
